--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Start Index</t>
   </si>
@@ -34,6 +34,15 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>FidCol</t>
+  </si>
+  <si>
+    <t>col1</t>
+  </si>
+  <si>
+    <t>col2</t>
   </si>
 </sst>
 </file>
@@ -372,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,7 +394,7 @@
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -398,8 +407,11 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -412,8 +424,11 @@
       <c r="D3">
         <v>101</v>
       </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -425,6 +440,9 @@
       </c>
       <c r="D4">
         <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
